--- a/Excel files/Info in tables.xlsx
+++ b/Excel files/Info in tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Documents\Pewlett-Hackard-AnalysisBS\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E70A96-0040-4A18-ABBB-400892068D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4308B8CC-AD4B-4A52-A6B0-7155247E77C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17200" yWindow="180" windowWidth="16810" windowHeight="9190" xr2:uid="{19CA16AD-F23B-4438-8324-1AEE7A823FC9}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19CA16AD-F23B-4438-8324-1AEE7A823FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Manager</t>
   </si>
   <si>
-    <t>Memborship Program</t>
-  </si>
-  <si>
     <t>Retiring</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Mentorship Program</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -452,16 +452,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -564,14 +564,14 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
         <v>1549</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>

--- a/Excel files/Info in tables.xlsx
+++ b/Excel files/Info in tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Documents\Pewlett-Hackard-AnalysisBS\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4308B8CC-AD4B-4A52-A6B0-7155247E77C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD0CB14-BF74-4A8F-A6E8-499509739394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19CA16AD-F23B-4438-8324-1AEE7A823FC9}"/>
   </bookViews>
@@ -59,13 +59,13 @@
     <t>Retiring</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Mentorship Program</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -452,16 +452,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -564,14 +564,14 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
         <v>1549</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
